--- a/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业营业成本.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业营业成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1393 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>930.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54.2</v>
+      </c>
       <c r="D2" t="n">
-        <v>166.0443</v>
+        <v>1771</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9769</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>401.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3714</v>
+      </c>
       <c r="G2" t="n">
-        <v>11.3844</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>919.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>913.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2622.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>856.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6641.1</v>
+      </c>
       <c r="L2" t="n">
-        <v>199.042</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>22827.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15751</v>
+      </c>
       <c r="N2" t="n">
-        <v>1988.6155</v>
+        <v>6230.7</v>
       </c>
       <c r="O2" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>1293.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12008.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1687.9</v>
+      </c>
       <c r="R2" t="n">
-        <v>42.7962</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>699.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5205.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.6</v>
+      </c>
       <c r="V2" t="n">
-        <v>467.9538</v>
+        <v>803.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1207.3858</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.3952</v>
+      </c>
       <c r="D3" t="n">
-        <v>222.3525</v>
+        <v>2189.4155</v>
       </c>
       <c r="E3" t="n">
-        <v>150.4343</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>449.2738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4748.6667</v>
+      </c>
       <c r="G3" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1153.0998</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1429.1675</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3235.5017</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1110.5941</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9013.3241</v>
+      </c>
       <c r="L3" t="n">
-        <v>345.0194</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>28023.3662</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18441.8591</v>
+      </c>
       <c r="N3" t="n">
-        <v>2404.051</v>
+        <v>7543.3132</v>
       </c>
       <c r="O3" t="n">
-        <v>77.3034</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>1725.9735</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14020.3036</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2065.9569</v>
+      </c>
       <c r="R3" t="n">
-        <v>84.9648</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>978.7086</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5744.081</v>
+      </c>
+      <c r="T3" t="n">
+        <v>420.7252</v>
+      </c>
+      <c r="U3" t="n">
+        <v>425.4844</v>
+      </c>
       <c r="V3" t="n">
-        <v>347.2834</v>
+        <v>1426.7803</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1391.24542</v>
+      </c>
+      <c r="C4" t="n">
+        <v>109.53674</v>
+      </c>
       <c r="D4" t="n">
-        <v>296.5024</v>
+        <v>2962.47905</v>
       </c>
       <c r="E4" t="n">
-        <v>169.6175</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>584.0899899999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5174.02072</v>
+      </c>
       <c r="G4" t="n">
-        <v>13.2607</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1504.23012</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2245.07604</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2538.18734</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1410.94066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10001.70674</v>
+      </c>
       <c r="L4" t="n">
-        <v>779.802</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>31821.96936</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21193.5871</v>
+      </c>
       <c r="N4" t="n">
-        <v>2721.1767</v>
+        <v>8333.19585</v>
       </c>
       <c r="O4" t="n">
-        <v>78.2957</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>2184.40592</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15478.06998</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2776.49144</v>
+      </c>
       <c r="R4" t="n">
-        <v>127.1663</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1296.13196</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6439.09736</v>
+      </c>
+      <c r="T4" t="n">
+        <v>585.41962</v>
+      </c>
+      <c r="U4" t="n">
+        <v>914</v>
+      </c>
       <c r="V4" t="n">
-        <v>342.8289</v>
+        <v>1832.2369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.11057</v>
+        <v>2000.39704</v>
       </c>
       <c r="C5" t="n">
-        <v>5.03574</v>
+        <v>152.57766</v>
       </c>
       <c r="D5" t="n">
-        <v>308.5164</v>
+        <v>3636.45834</v>
       </c>
       <c r="E5" t="n">
-        <v>169.10611</v>
+        <v>670.8516</v>
       </c>
       <c r="F5" t="n">
-        <v>877.88758</v>
+        <v>6077.17679</v>
       </c>
       <c r="G5" t="n">
-        <v>252.43069</v>
+        <v>2215.32847</v>
       </c>
       <c r="H5" t="n">
-        <v>79.16413</v>
+        <v>2760.46311</v>
       </c>
       <c r="I5" t="n">
-        <v>650.649</v>
+        <v>2551.67735</v>
       </c>
       <c r="J5" t="n">
-        <v>72.19198</v>
+        <v>1680.24093</v>
       </c>
       <c r="K5" t="n">
-        <v>377.23202</v>
+        <v>11047.04138</v>
       </c>
       <c r="L5" t="n">
-        <v>1742.38365</v>
+        <v>36998.00372</v>
       </c>
       <c r="M5" t="n">
-        <v>1247.54476</v>
+        <v>25207.06596</v>
       </c>
       <c r="N5" t="n">
-        <v>2062.15558</v>
+        <v>9435.111569999999</v>
       </c>
       <c r="O5" t="n">
-        <v>144.82043</v>
+        <v>2654.07644</v>
       </c>
       <c r="P5" t="n">
-        <v>3569.39858</v>
+        <v>17445.08467</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.7257</v>
+        <v>3388.73106</v>
       </c>
       <c r="R5" t="n">
-        <v>133.32173</v>
+        <v>1614.94436</v>
       </c>
       <c r="S5" t="n">
-        <v>1393.41095</v>
+        <v>7149.11635</v>
       </c>
       <c r="T5" t="n">
-        <v>83.30692999999999</v>
+        <v>663.31102</v>
       </c>
       <c r="U5" t="n">
-        <v>4.443</v>
+        <v>1286.25135</v>
       </c>
       <c r="V5" t="n">
-        <v>193.80443</v>
+        <v>2039.80981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.60929</v>
+        <v>2192.1478</v>
       </c>
       <c r="C6" t="n">
-        <v>12.527</v>
+        <v>108.26661</v>
       </c>
       <c r="D6" t="n">
-        <v>577.21833</v>
+        <v>4279.71047</v>
       </c>
       <c r="E6" t="n">
-        <v>220.63054</v>
+        <v>754.02881</v>
       </c>
       <c r="F6" t="n">
-        <v>1462.29475</v>
+        <v>6963.3949</v>
       </c>
       <c r="G6" t="n">
-        <v>325.25094</v>
+        <v>2501.99975</v>
       </c>
       <c r="H6" t="n">
-        <v>181.70139</v>
+        <v>3833.4224</v>
       </c>
       <c r="I6" t="n">
-        <v>968.09911</v>
+        <v>2715.12176</v>
       </c>
       <c r="J6" t="n">
-        <v>153.2254</v>
+        <v>1722.56212</v>
       </c>
       <c r="K6" t="n">
-        <v>1085.69102</v>
+        <v>12132.57075</v>
       </c>
       <c r="L6" t="n">
-        <v>4180.53783</v>
+        <v>42014.84463</v>
       </c>
       <c r="M6" t="n">
-        <v>2937.35011</v>
+        <v>29041.71232</v>
       </c>
       <c r="N6" t="n">
-        <v>2101.20163</v>
+        <v>9914.37427</v>
       </c>
       <c r="O6" t="n">
-        <v>257.74705</v>
+        <v>2935.76033</v>
       </c>
       <c r="P6" t="n">
-        <v>4186.32425</v>
+        <v>18421.65618</v>
       </c>
       <c r="Q6" t="n">
-        <v>520.34672</v>
+        <v>3982.30265</v>
       </c>
       <c r="R6" t="n">
-        <v>235.96789</v>
+        <v>2034.86909</v>
       </c>
       <c r="S6" t="n">
-        <v>1921.46007</v>
+        <v>7556.05296</v>
       </c>
       <c r="T6" t="n">
-        <v>210.34364</v>
+        <v>721.77908</v>
       </c>
       <c r="U6" t="n">
-        <v>6.85531</v>
+        <v>2322.52551</v>
       </c>
       <c r="V6" t="n">
-        <v>256.95686</v>
+        <v>2502.79857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.38077</v>
+        <v>2504.9744</v>
       </c>
       <c r="C7" t="n">
-        <v>12.07241</v>
+        <v>121.7589</v>
       </c>
       <c r="D7" t="n">
-        <v>587.40721</v>
+        <v>4638.513</v>
       </c>
       <c r="E7" t="n">
-        <v>233.77488</v>
+        <v>780.3222</v>
       </c>
       <c r="F7" t="n">
-        <v>1618.17756</v>
+        <v>7850.9054</v>
       </c>
       <c r="G7" t="n">
-        <v>363.89223</v>
+        <v>2282.1536</v>
       </c>
       <c r="H7" t="n">
-        <v>181.46389</v>
+        <v>4025.1734</v>
       </c>
       <c r="I7" t="n">
-        <v>1084.71518</v>
+        <v>2774.6524</v>
       </c>
       <c r="J7" t="n">
-        <v>159.11104</v>
+        <v>1881.8219</v>
       </c>
       <c r="K7" t="n">
-        <v>1609.81973</v>
+        <v>10413.8166</v>
       </c>
       <c r="L7" t="n">
-        <v>5085.6324</v>
+        <v>41384.111</v>
       </c>
       <c r="M7" t="n">
-        <v>3344.45862</v>
+        <v>30108.9469</v>
       </c>
       <c r="N7" t="n">
-        <v>2426.8625</v>
+        <v>10154.1672</v>
       </c>
       <c r="O7" t="n">
-        <v>259.69947</v>
+        <v>3278.3131</v>
       </c>
       <c r="P7" t="n">
-        <v>4972.6</v>
+        <v>18994.383</v>
       </c>
       <c r="Q7" t="n">
-        <v>543.04544</v>
+        <v>4419.8004</v>
       </c>
       <c r="R7" t="n">
-        <v>286.56209</v>
+        <v>1835.5725</v>
       </c>
       <c r="S7" t="n">
-        <v>2367.97467</v>
+        <v>7820.892</v>
       </c>
       <c r="T7" t="n">
-        <v>198.96683</v>
+        <v>1561.1228</v>
       </c>
       <c r="U7" t="n">
-        <v>6.9602</v>
+        <v>2637.0529</v>
       </c>
       <c r="V7" t="n">
-        <v>225.13639</v>
+        <v>2801.9546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.9468</v>
+        <v>2858.4328</v>
       </c>
       <c r="C8" t="n">
-        <v>24.851</v>
+        <v>138.7786</v>
       </c>
       <c r="D8" t="n">
-        <v>632.4109</v>
+        <v>5489.1167</v>
       </c>
       <c r="E8" t="n">
-        <v>244.34</v>
+        <v>833.3385</v>
       </c>
       <c r="F8" t="n">
-        <v>1935.1247</v>
+        <v>8065.3775</v>
       </c>
       <c r="G8" t="n">
-        <v>409.7092</v>
+        <v>2506.1477</v>
       </c>
       <c r="H8" t="n">
-        <v>266.5536</v>
+        <v>5869.1384</v>
       </c>
       <c r="I8" t="n">
-        <v>1292.2548</v>
+        <v>3126.2434</v>
       </c>
       <c r="J8" t="n">
-        <v>189.5934</v>
+        <v>2166.7129</v>
       </c>
       <c r="K8" t="n">
-        <v>2030.9516</v>
+        <v>10749.3877</v>
       </c>
       <c r="L8" t="n">
-        <v>6585.1368</v>
+        <v>46459.578</v>
       </c>
       <c r="M8" t="n">
-        <v>4384.3098</v>
+        <v>34785.3076</v>
       </c>
       <c r="N8" t="n">
-        <v>3041.6271</v>
+        <v>10128.7422</v>
       </c>
       <c r="O8" t="n">
-        <v>303.9874</v>
+        <v>3647.1223</v>
       </c>
       <c r="P8" t="n">
-        <v>6092.6659</v>
+        <v>19313.9913</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.4767000000001</v>
+        <v>5253.1881</v>
       </c>
       <c r="R8" t="n">
-        <v>359.2206</v>
+        <v>1932.3846</v>
       </c>
       <c r="S8" t="n">
-        <v>2818.4266</v>
+        <v>8140.4583</v>
       </c>
       <c r="T8" t="n">
-        <v>229.8025</v>
+        <v>1000.8162</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8792</v>
+        <v>4575.5019</v>
       </c>
       <c r="V8" t="n">
-        <v>284.5062</v>
+        <v>3208.2289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>323.67105</v>
+        <v>2412.488</v>
       </c>
       <c r="C9" t="n">
-        <v>43.71335</v>
+        <v>177.878</v>
       </c>
       <c r="D9" t="n">
-        <v>730.51563</v>
+        <v>4207.58</v>
       </c>
       <c r="E9" t="n">
-        <v>245.90028</v>
+        <v>828.295</v>
       </c>
       <c r="F9" t="n">
-        <v>2313.28265</v>
+        <v>7849.375</v>
       </c>
       <c r="G9" t="n">
-        <v>485.59245</v>
+        <v>2464.737</v>
       </c>
       <c r="H9" t="n">
-        <v>283.30566</v>
+        <v>6975.064</v>
       </c>
       <c r="I9" t="n">
-        <v>1561.50076</v>
+        <v>3069.748</v>
       </c>
       <c r="J9" t="n">
-        <v>280.2718</v>
+        <v>2112.587</v>
       </c>
       <c r="K9" t="n">
-        <v>2244.16923</v>
+        <v>10773.041</v>
       </c>
       <c r="L9" t="n">
-        <v>8242.181570000001</v>
+        <v>46165.582</v>
       </c>
       <c r="M9" t="n">
-        <v>5808.04682</v>
+        <v>34489.253</v>
       </c>
       <c r="N9" t="n">
-        <v>3591.74336</v>
+        <v>8859.757</v>
       </c>
       <c r="O9" t="n">
-        <v>429.71486</v>
+        <v>3568.813</v>
       </c>
       <c r="P9" t="n">
-        <v>7165.19022</v>
+        <v>17175.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>684.97852</v>
+        <v>4019.518</v>
       </c>
       <c r="R9" t="n">
-        <v>461.10968</v>
+        <v>2062.726</v>
       </c>
       <c r="S9" t="n">
-        <v>3283.42667</v>
+        <v>7490.226</v>
       </c>
       <c r="T9" t="n">
-        <v>226.99311</v>
+        <v>943.252</v>
       </c>
       <c r="U9" t="n">
-        <v>17.59036</v>
+        <v>5778.214</v>
       </c>
       <c r="V9" t="n">
-        <v>350.69909</v>
+        <v>3072.872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.8371</v>
+        <v>1940.5632</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1166</v>
+        <v>184.9867</v>
       </c>
       <c r="D10" t="n">
-        <v>1100.7671</v>
+        <v>3503.7723</v>
       </c>
       <c r="E10" t="n">
-        <v>308.4159</v>
+        <v>886.5731</v>
       </c>
       <c r="F10" t="n">
-        <v>2869.8717</v>
+        <v>7610.151</v>
       </c>
       <c r="G10" t="n">
-        <v>660.9304</v>
+        <v>2328.6443</v>
       </c>
       <c r="H10" t="n">
-        <v>492.0191</v>
+        <v>9281.322899999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1928.7866</v>
+        <v>3050.97</v>
       </c>
       <c r="J10" t="n">
-        <v>554.2894</v>
+        <v>2152.4312</v>
       </c>
       <c r="K10" t="n">
-        <v>4943.491</v>
+        <v>12972.4129</v>
       </c>
       <c r="L10" t="n">
-        <v>13366.6823</v>
+        <v>47084.6868</v>
       </c>
       <c r="M10" t="n">
-        <v>8150.4184</v>
+        <v>32712.0799</v>
       </c>
       <c r="N10" t="n">
-        <v>4366.3425</v>
+        <v>8491.892400000001</v>
       </c>
       <c r="O10" t="n">
-        <v>882.1963</v>
+        <v>3686.4871</v>
       </c>
       <c r="P10" t="n">
-        <v>8612.0322</v>
+        <v>16392.1967</v>
       </c>
       <c r="Q10" t="n">
-        <v>1049.4072</v>
+        <v>3144.5013</v>
       </c>
       <c r="R10" t="n">
-        <v>581.428</v>
+        <v>2026.6594</v>
       </c>
       <c r="S10" t="n">
-        <v>3862.1024</v>
+        <v>7260.0905</v>
       </c>
       <c r="T10" t="n">
-        <v>298.0709</v>
+        <v>1049.8565</v>
       </c>
       <c r="U10" t="n">
-        <v>59.7991</v>
+        <v>8382.673000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>475.4163</v>
+        <v>2774.4083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.70402</v>
+        <v>1952.0754</v>
       </c>
       <c r="C11" t="n">
-        <v>46.87053</v>
+        <v>180.4109</v>
       </c>
       <c r="D11" t="n">
-        <v>1338.09602</v>
+        <v>3408.0583</v>
       </c>
       <c r="E11" t="n">
-        <v>348.1003</v>
+        <v>913.2453</v>
       </c>
       <c r="F11" t="n">
-        <v>2907.42157</v>
+        <v>6847.6762</v>
       </c>
       <c r="G11" t="n">
-        <v>778.2222</v>
+        <v>2459.9762</v>
       </c>
       <c r="H11" t="n">
-        <v>552.4999800000001</v>
+        <v>13383.7806</v>
       </c>
       <c r="I11" t="n">
-        <v>1981.40992</v>
+        <v>3307.854</v>
       </c>
       <c r="J11" t="n">
-        <v>650.23768</v>
+        <v>2400.1979</v>
       </c>
       <c r="K11" t="n">
-        <v>4969.51142</v>
+        <v>12954.2304</v>
       </c>
       <c r="L11" t="n">
-        <v>16523.80344</v>
+        <v>49493.3692</v>
       </c>
       <c r="M11" t="n">
-        <v>11192.90481</v>
+        <v>34838.5245</v>
       </c>
       <c r="N11" t="n">
-        <v>4957.82175</v>
+        <v>8565.4139</v>
       </c>
       <c r="O11" t="n">
-        <v>1042.01105</v>
+        <v>4085.5633</v>
       </c>
       <c r="P11" t="n">
-        <v>9697.44284</v>
+        <v>17165.8054</v>
       </c>
       <c r="Q11" t="n">
-        <v>1273.62008</v>
+        <v>2976.3047</v>
       </c>
       <c r="R11" t="n">
-        <v>570.12</v>
+        <v>1008.4237</v>
       </c>
       <c r="S11" t="n">
-        <v>4332.65874</v>
+        <v>7763.701</v>
       </c>
       <c r="T11" t="n">
-        <v>280.85198</v>
+        <v>1114.9918</v>
       </c>
       <c r="U11" t="n">
-        <v>106.27161</v>
+        <v>12366.4349</v>
       </c>
       <c r="V11" t="n">
-        <v>558.14259</v>
+        <v>3087.8671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.3</v>
+        <v>1452.9154</v>
       </c>
       <c r="C12" t="n">
-        <v>54.2</v>
+        <v>148.0231</v>
       </c>
       <c r="D12" t="n">
-        <v>1771</v>
+        <v>3679.1677</v>
       </c>
       <c r="E12" t="n">
-        <v>401.2</v>
+        <v>951.7868</v>
       </c>
       <c r="F12" t="n">
-        <v>3714</v>
+        <v>6878.5789</v>
       </c>
       <c r="G12" t="n">
-        <v>919.5</v>
+        <v>2408.9061</v>
       </c>
       <c r="H12" t="n">
-        <v>913.1</v>
+        <v>16699.4382</v>
       </c>
       <c r="I12" t="n">
-        <v>2622.1</v>
+        <v>3253.0371</v>
       </c>
       <c r="J12" t="n">
-        <v>856.3</v>
+        <v>2282.4965</v>
       </c>
       <c r="K12" t="n">
-        <v>6641.1</v>
+        <v>11678.4831</v>
       </c>
       <c r="L12" t="n">
-        <v>22827.5</v>
+        <v>48626.8369</v>
       </c>
       <c r="M12" t="n">
-        <v>15751</v>
+        <v>35533.4042</v>
       </c>
       <c r="N12" t="n">
-        <v>6230.7</v>
+        <v>7258.721</v>
       </c>
       <c r="O12" t="n">
-        <v>1293.2</v>
+        <v>3869.5632</v>
       </c>
       <c r="P12" t="n">
-        <v>12008.5</v>
+        <v>16265.5891</v>
       </c>
       <c r="Q12" t="n">
-        <v>1687.9</v>
+        <v>3362.8411</v>
       </c>
       <c r="R12" t="n">
-        <v>699.7</v>
+        <v>1268.8296</v>
       </c>
       <c r="S12" t="n">
-        <v>5205.2</v>
+        <v>8232.2058</v>
       </c>
       <c r="T12" t="n">
-        <v>301.8</v>
+        <v>1142.1132</v>
       </c>
       <c r="U12" t="n">
-        <v>251.6</v>
+        <v>15747.6415</v>
       </c>
       <c r="V12" t="n">
-        <v>803.7</v>
+        <v>3213.4989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1207.3858</v>
+        <v>1591.431</v>
       </c>
       <c r="C13" t="n">
-        <v>66.3952</v>
+        <v>130.2469</v>
       </c>
       <c r="D13" t="n">
-        <v>2189.4155</v>
+        <v>3754.2073</v>
       </c>
       <c r="E13" t="n">
-        <v>449.2738</v>
+        <v>1036.544</v>
       </c>
       <c r="F13" t="n">
-        <v>4748.6667</v>
+        <v>7278.1436</v>
       </c>
       <c r="G13" t="n">
-        <v>1153.0998</v>
+        <v>2700.9444</v>
       </c>
       <c r="H13" t="n">
-        <v>1429.1675</v>
+        <v>19893.7562</v>
       </c>
       <c r="I13" t="n">
-        <v>3235.5017</v>
+        <v>2974.2883</v>
       </c>
       <c r="J13" t="n">
-        <v>1110.5941</v>
+        <v>2476.15</v>
       </c>
       <c r="K13" t="n">
-        <v>9013.3241</v>
+        <v>15521.2421</v>
       </c>
       <c r="L13" t="n">
-        <v>28023.3662</v>
+        <v>55199.8342</v>
       </c>
       <c r="M13" t="n">
-        <v>18441.8591</v>
+        <v>38214.4738</v>
       </c>
       <c r="N13" t="n">
-        <v>7543.3132</v>
+        <v>7548.9483</v>
       </c>
       <c r="O13" t="n">
-        <v>1725.9735</v>
+        <v>4420.4008</v>
       </c>
       <c r="P13" t="n">
-        <v>14020.3036</v>
+        <v>16597.2618</v>
       </c>
       <c r="Q13" t="n">
-        <v>2065.9569</v>
+        <v>3404.6511</v>
       </c>
       <c r="R13" t="n">
-        <v>978.7086</v>
+        <v>1754.919</v>
       </c>
       <c r="S13" t="n">
-        <v>5744.081</v>
+        <v>8190.8127</v>
       </c>
       <c r="T13" t="n">
-        <v>420.7252</v>
+        <v>1403.9823</v>
       </c>
       <c r="U13" t="n">
-        <v>425.4844</v>
+        <v>18983.1168</v>
       </c>
       <c r="V13" t="n">
-        <v>1426.7803</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1391.24542</v>
-      </c>
-      <c r="C14" t="n">
-        <v>109.53674</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2962.47905</v>
-      </c>
-      <c r="E14" t="n">
-        <v>584.0899899999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5174.02072</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1504.23012</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2245.07604</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2538.18734</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1410.94066</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10001.70674</v>
-      </c>
-      <c r="L14" t="n">
-        <v>31821.96936</v>
-      </c>
-      <c r="M14" t="n">
-        <v>21193.5871</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8333.19585</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2184.40592</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15478.06998</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2776.49144</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1296.13196</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6439.09736</v>
-      </c>
-      <c r="T14" t="n">
-        <v>585.41962</v>
-      </c>
-      <c r="U14" t="n">
-        <v>914</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1832.2369</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2000.39704</v>
-      </c>
-      <c r="C15" t="n">
-        <v>152.57766</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3636.45834</v>
-      </c>
-      <c r="E15" t="n">
-        <v>670.8516</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6077.17679</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2215.32847</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2760.46311</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2551.67735</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1680.24093</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11047.04138</v>
-      </c>
-      <c r="L15" t="n">
-        <v>36998.00372</v>
-      </c>
-      <c r="M15" t="n">
-        <v>25207.06596</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9435.111569999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2654.07644</v>
-      </c>
-      <c r="P15" t="n">
-        <v>17445.08467</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3388.73106</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1614.94436</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7149.11635</v>
-      </c>
-      <c r="T15" t="n">
-        <v>663.31102</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1286.25135</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2039.80981</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2192.1478</v>
-      </c>
-      <c r="C16" t="n">
-        <v>108.26661</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4279.71047</v>
-      </c>
-      <c r="E16" t="n">
-        <v>754.02881</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6963.3949</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2501.99975</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3833.4224</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2715.12176</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1722.56212</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12132.57075</v>
-      </c>
-      <c r="L16" t="n">
-        <v>42014.84463</v>
-      </c>
-      <c r="M16" t="n">
-        <v>29041.71232</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9914.37427</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2935.76033</v>
-      </c>
-      <c r="P16" t="n">
-        <v>18421.65618</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3982.30265</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2034.86909</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7556.05296</v>
-      </c>
-      <c r="T16" t="n">
-        <v>721.77908</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2322.52551</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2502.79857</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2504.9744</v>
-      </c>
-      <c r="C17" t="n">
-        <v>121.7589</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4638.513</v>
-      </c>
-      <c r="E17" t="n">
-        <v>780.3222</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7850.9054</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2282.1536</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4025.1734</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2774.6524</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1881.8219</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10413.8166</v>
-      </c>
-      <c r="L17" t="n">
-        <v>41384.111</v>
-      </c>
-      <c r="M17" t="n">
-        <v>30108.9469</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10154.1672</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3278.3131</v>
-      </c>
-      <c r="P17" t="n">
-        <v>18994.383</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4419.8004</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1835.5725</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7820.892</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1561.1228</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2637.0529</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2801.9546</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2858.4328</v>
-      </c>
-      <c r="C18" t="n">
-        <v>138.7786</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5489.1167</v>
-      </c>
-      <c r="E18" t="n">
-        <v>833.3385</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8065.3775</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2506.1477</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5869.1384</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3126.2434</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2166.7129</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10749.3877</v>
-      </c>
-      <c r="L18" t="n">
-        <v>46459.578</v>
-      </c>
-      <c r="M18" t="n">
-        <v>34785.3076</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10128.7422</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3647.1223</v>
-      </c>
-      <c r="P18" t="n">
-        <v>19313.9913</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5253.1881</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1932.3846</v>
-      </c>
-      <c r="S18" t="n">
-        <v>8140.4583</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1000.8162</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4575.5019</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3208.2289</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2412.488</v>
-      </c>
-      <c r="C19" t="n">
-        <v>177.878</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4207.58</v>
-      </c>
-      <c r="E19" t="n">
-        <v>828.295</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7849.375</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2464.737</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6975.064</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3069.748</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2112.587</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10773.041</v>
-      </c>
-      <c r="L19" t="n">
-        <v>46165.582</v>
-      </c>
-      <c r="M19" t="n">
-        <v>34489.253</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8859.757</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3568.813</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17175.35</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4019.518</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2062.726</v>
-      </c>
-      <c r="S19" t="n">
-        <v>7490.226</v>
-      </c>
-      <c r="T19" t="n">
-        <v>943.252</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5778.214</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3072.872</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1940.5632</v>
-      </c>
-      <c r="C20" t="n">
-        <v>184.9867</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3503.7723</v>
-      </c>
-      <c r="E20" t="n">
-        <v>886.5731</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7610.151</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2328.6443</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9281.322899999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3050.97</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2152.4312</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12972.4129</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47084.6868</v>
-      </c>
-      <c r="M20" t="n">
-        <v>32712.0799</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8491.892400000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3686.4871</v>
-      </c>
-      <c r="P20" t="n">
-        <v>16392.1967</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3144.5013</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2026.6594</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7260.0905</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1049.8565</v>
-      </c>
-      <c r="U20" t="n">
-        <v>8382.673000000001</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2774.4083</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1952.0754</v>
-      </c>
-      <c r="C21" t="n">
-        <v>180.4109</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3408.0583</v>
-      </c>
-      <c r="E21" t="n">
-        <v>913.2453</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6847.6762</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2459.9762</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13383.7806</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3307.854</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2400.1979</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12954.2304</v>
-      </c>
-      <c r="L21" t="n">
-        <v>49493.3692</v>
-      </c>
-      <c r="M21" t="n">
-        <v>34838.5245</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8565.4139</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4085.5633</v>
-      </c>
-      <c r="P21" t="n">
-        <v>17165.8054</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2976.3047</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1008.4237</v>
-      </c>
-      <c r="S21" t="n">
-        <v>7763.701</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1114.9918</v>
-      </c>
-      <c r="U21" t="n">
-        <v>12366.4349</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3087.8671</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1452.9154</v>
-      </c>
-      <c r="C22" t="n">
-        <v>148.0231</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3679.1677</v>
-      </c>
-      <c r="E22" t="n">
-        <v>951.7868</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6878.5789</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2408.9061</v>
-      </c>
-      <c r="H22" t="n">
-        <v>16699.4382</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3253.0371</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2282.4965</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11678.4831</v>
-      </c>
-      <c r="L22" t="n">
-        <v>48626.8369</v>
-      </c>
-      <c r="M22" t="n">
-        <v>35533.4042</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7258.721</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3869.5632</v>
-      </c>
-      <c r="P22" t="n">
-        <v>16265.5891</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3362.8411</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1268.8296</v>
-      </c>
-      <c r="S22" t="n">
-        <v>8232.2058</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1142.1132</v>
-      </c>
-      <c r="U22" t="n">
-        <v>15747.6415</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3213.4989</v>
+        <v>3870.8602</v>
       </c>
     </row>
   </sheetData>
